--- a/teamSprintSheet.xlsx
+++ b/teamSprintSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\cs342\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Desktop\CS342softwareDesignProject4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE32203-8DBF-4CF9-A592-696CBC1235A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4557AF8-05EF-43D9-BBF5-2298EF867E25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{295B521D-40CD-0741-A7F0-C29826591B86}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Action Item</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>implemented a simple way for a player to challenge another player, and for a player to accept a challenge.</t>
+  </si>
+  <si>
+    <t>implemented window that showed a list of clients that updates list whenever a client joins or leaves.</t>
+  </si>
+  <si>
+    <t>implemenented disabling player buttons whenever a player is challenged to a game.</t>
   </si>
 </sst>
 </file>
@@ -453,8 +459,8 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="22.2" thickBottom="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -578,8 +584,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="13" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="8">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="14" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="15" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="16" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>

--- a/teamSprintSheet.xlsx
+++ b/teamSprintSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Desktop\CS342softwareDesignProject4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4557AF8-05EF-43D9-BBF5-2298EF867E25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B949421-6F2B-4860-B589-7B7E720DFE96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{295B521D-40CD-0741-A7F0-C29826591B86}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 1" sheetId="2" r:id="rId1"/>
@@ -18,26 +18,67 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'April 1'!$A$1:$G$23</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+  <si>
+    <t>Weekly Sprint Sheet</t>
+  </si>
+  <si>
+    <t>Team Members</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Project: 4</t>
+  </si>
+  <si>
+    <t>Danny Belmonte</t>
+  </si>
+  <si>
+    <t>dbelmo2@uic.edu</t>
+  </si>
+  <si>
+    <t>Week Of: 4/4/2019</t>
+  </si>
+  <si>
+    <t>Andrew Ciepiela</t>
+  </si>
+  <si>
+    <t>aciepi3@uic.edu</t>
+  </si>
+  <si>
+    <t>John Almazan</t>
+  </si>
+  <si>
+    <t>jalmaz3@uic.edu</t>
+  </si>
+  <si>
+    <t>Michael Lemus</t>
+  </si>
+  <si>
+    <t>mlemus6@uic.edu</t>
+  </si>
+  <si>
+    <t>Team Number: 23</t>
+  </si>
+  <si>
+    <t>Huihan Hu</t>
+  </si>
+  <si>
+    <t>hhu25@uic.edu</t>
+  </si>
   <si>
     <t>Action Item</t>
   </si>
   <si>
+    <t>Item ID</t>
+  </si>
+  <si>
     <t>Team Member</t>
   </si>
   <si>
@@ -53,45 +94,6 @@
     <t>Issues</t>
   </si>
   <si>
-    <t>Item ID</t>
-  </si>
-  <si>
-    <t>Weekly Sprint Sheet</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Team Members</t>
-  </si>
-  <si>
-    <t>Project: 4</t>
-  </si>
-  <si>
-    <t>Danny Belmonte</t>
-  </si>
-  <si>
-    <t>Andrew Ciepiela</t>
-  </si>
-  <si>
-    <t>John Almazan</t>
-  </si>
-  <si>
-    <t>jalmaz3@uic.edu</t>
-  </si>
-  <si>
-    <t>aciepi3@uic.edu</t>
-  </si>
-  <si>
-    <t>dbelmo2@uic.edu</t>
-  </si>
-  <si>
-    <t>Team Number: 23</t>
-  </si>
-  <si>
-    <t>Week Of: 4/4/2019</t>
-  </si>
-  <si>
     <t>implemented the game where each game is one round and server sends a win/loss/draw message.</t>
   </si>
   <si>
@@ -105,6 +107,21 @@
   </si>
   <si>
     <t>implemenented disabling player buttons whenever a player is challenged to a game.</t>
+  </si>
+  <si>
+    <t>implemented a way that once a player is in the game, the player challenging the player currently in the game will receive a message stating the player in unavailable</t>
+  </si>
+  <si>
+    <t>implemented a drop down menu of buttons for players to choose their opponent</t>
+  </si>
+  <si>
+    <t>implemented the return to lobby button once the game is completed / once the player player received the message that the player is already in a game</t>
+  </si>
+  <si>
+    <t>update the server GUI</t>
+  </si>
+  <si>
+    <t>update the client GUI</t>
   </si>
 </sst>
 </file>
@@ -116,14 +133,22 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Gill Sans MT"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Gill Sans MT"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Gill Sans MT"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,22 +156,7 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="Gill Sans MT"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Gill Sans MT"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Gill Sans MT"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,7 +164,14 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Gill Sans MT"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Gill Sans MT"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -167,14 +184,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="0"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -204,41 +221,41 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -296,12 +313,12 @@
     </a:clrScheme>
     <a:fontScheme name="Badge">
       <a:majorFont>
-        <a:latin typeface="Impact" panose="020B0806030902050204"/>
+        <a:latin typeface="Impact"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Gill Sans MT" panose="020B0502020104020203"/>
+        <a:latin typeface="Gill Sans MT"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -443,226 +460,285 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Badge" id="{71A07785-5930-41D4-9A83-E23602B48E98}" vid="{771EA782-DFA6-45B1-AEA3-661F1715B310}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8174DDC-626F-C241-BA63-97312BBE7226}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="22.2" thickBottom="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="18.3" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="53" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.796875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.796875" style="1"/>
+    <col min="1" max="1" width="53" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="41.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="38.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="42.75" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="D4" s="5"/>
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="D5" s="5"/>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="5"/>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D4" s="2"/>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2"/>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.5">
-      <c r="A7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="9" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="8">
-        <v>2</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="8">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="8">
-        <v>4</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="8">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="15" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="16" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="17" spans="4:5" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="18" spans="4:5" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="19" spans="4:5" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="20" spans="4:5" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="21" spans="4:5" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="22" spans="4:5" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="23" spans="4:5" s="6" customFormat="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="32" spans="4:5" ht="30" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D32" s="5"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="4:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="4:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="4:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="4:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="4:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D37" s="3"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="4:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D38" s="3"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="4:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D39" s="3"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="4:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="4:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+    <row r="19" spans="1:5" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:5" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:5" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="1:5" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:5" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="D32" s="7"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{DE03C28B-67A2-4847-8105-A2E70E22E16F}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{88A18EF4-0CC2-4AA4-8D2C-BF8F1381650D}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{2482EA4E-AD03-4F2D-9DF5-89DB4C183324}"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="46" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="46" orientation="landscape"/>
 </worksheet>
 </file>